--- a/medicine/Psychotrope/Eau-de-vie/Eau-de-vie.xlsx
+++ b/medicine/Psychotrope/Eau-de-vie/Eau-de-vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une eau-de-vie (en latin aqua vitæ ; populairement « goutte » ou « gnôle ») est une boisson spiritueuse obtenue :
 par fermentation alcoolique de céréales, fruits, baies, racines, noix, légumes, marcs ou miel et distillation.
@@ -515,10 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Union européenne
-La réglementation européenne définit 44 catégories commerciales de boissons spiritueuses dont beaucoup sont des eaux-de-vie[1].
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réglementation européenne définit 44 catégories commerciales de boissons spiritueuses dont beaucoup sont des eaux-de-vie.
 Les eaux-de-vie qui ne sont pas produites sur le territoire européen, comme la tequila ou le baijiu, ne sont pas reprises dans les 44 catégories.
-Eaux-de-vie obtenues par fermentation et distillation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Définitions commerciales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Eaux-de-vie obtenues par fermentation et distillation</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rhum
 Whisk(e)y
 Boisson spiritueuse de céréales ou eau-de-vie de céréales
@@ -534,10 +591,48 @@
 Eau-de-vie de bière
 Topinambur ou eau-de-vie de topinambour
 Vodka
-Gentiane
-Eaux-de-vie obtenues par macération et distillation
-L'eau-de-vie (complétée par le nom du fruit, des baies ou des noix) obtenue par macération et distillation est la boisson spiritueuse qui a été obtenue par macération des fruits, des baies ou des noix, partiellement fermentés ou non fermentés, avec la possibilité d'adjonction d'un volume maximal de 20 litres d'alcool éthylique d'origine agricole ou d'une eau-de-vie ou d'un distillat provenant des mêmes fruits, baies ou noix, ou d'une combinaison de ces produits, par 100 kg de fruits, de baies ou de noix fermenté, suivie d'une distillation[2].
-Elle ne peut être obtenue qu'à partir des fruits, des baies ou des noix suivants[2] :
+Gentiane</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définitions commerciales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Eaux-de-vie obtenues par macération et distillation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eau-de-vie (complétée par le nom du fruit, des baies ou des noix) obtenue par macération et distillation est la boisson spiritueuse qui a été obtenue par macération des fruits, des baies ou des noix, partiellement fermentés ou non fermentés, avec la possibilité d'adjonction d'un volume maximal de 20 litres d'alcool éthylique d'origine agricole ou d'une eau-de-vie ou d'un distillat provenant des mêmes fruits, baies ou noix, ou d'une combinaison de ces produits, par 100 kg de fruits, de baies ou de noix fermenté, suivie d'une distillation.
+Elle ne peut être obtenue qu'à partir des fruits, des baies ou des noix suivants :
 aronia
 aronia noir
 châtaigne
@@ -574,82 +669,10 @@
 canneberge
 myrtille
 airelle rouge
-L'eau-de-vie (complétée par le nom du fruit, des baies ou des noix) obtenue par macération et distillation doit titrer un minimum de 37,5 % vol[2].
-Elle ne peut être ni aromatisée ni colorée (sauf si elle a été vieillie au moins un an au contact du bois, elle peut alors être additionnée de caramel pour en adapter la couleur)[2].
-Elle ne peut contenir plus de 18 grammes par litre de produits édulcorants (exprimés en sucre inverti)[2].
-Une nouvelle tendance étend la production des eaux-de-vie en utilisant des aliments confectionnés comme bases de macération tels que des rillettes ou des sablés[3].
-Geist
-Le geist est la boisson spiritueuse produite par macération de fruits ou baies non fermentés ou de légumes, fruits à coque, autres matériels végétaux, tels que les herbes ou les pétales de rose, ou de champignons dans de l'alcool éthylique d'origine agricole, suivie d'une distillation[4].
-Le geist doit titrer un minimum de 37,5 % vol[4].
-Il ne peut être ni coloré ni aromatisé et ne peut contenir plus de 10 grammes par litre de produits édulcorants (exprimés en sucre inverti)[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eau-de-vie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Historique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’eau-de-vie fut élaborée au Moyen Âge par des alchimistes qui tentaient de créer un élixir de longue vie[5]. On lui a longtemps attribué des vertus médicinales, avec une certaine raison car le degré alcoolique de la plupart des eaux-de-vie en faisait d'excellents antiseptiques utilisables en interne (gargarismes en cas d'inflammation de la sphère ORL). Elle servait encore à soigner les enfants jusqu’à l’aube du XXe siècle, avec certains dégâts sur leur développement physique et mental ainsi que leur santé à long terme du fait des doses données.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eau-de-vie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Les différentes eaux-de-vie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eaux-de-vie obtenues par fermentation et distillation
-Le saké japonais n'est pas une eau-de-vie, étant obtenu par fermentation du riz sans distillation. Dans les restaurants chinois d'Europe, on propose fréquemment du meiguilujiu (qui, lui, est distillé) sous le nom de "saké", ce qui entretient la confusion.
-Eaux-de-vie obtenues par macération et distillation
-Certains fruits, baies et noix dont la concentration en sucre est trop faible pour produire une quantité d'alcool suffisante par fermentation peuvent être mis à macérer, non fermentés ou partiellement fermentés, dans un distillat provenant des mêmes fruits, baies ou noix, ou dans de l'alcool neutre (ou dans un mélange des deux) et distillés ensuite[6],[2].
-Geists ou esprits
-Les eaux-de-vie obtenues par macération et distillation peuvent porter le nom d'esprit (ou geist) lorsque les fruits, baies ou noix sont mis à macérer non fermentés dans de l'alcool neutre avant d'être distillés[4].
-Un geist peut également être obtenu à partir de n'importe quelle autre matière première naturelle, pour peu qu'elle soit mise à macérer non fermentée dans de l'alcool neutre et distillée ensuite[4].
+L'eau-de-vie (complétée par le nom du fruit, des baies ou des noix) obtenue par macération et distillation doit titrer un minimum de 37,5 % vol.
+Elle ne peut être ni aromatisée ni colorée (sauf si elle a été vieillie au moins un an au contact du bois, elle peut alors être additionnée de caramel pour en adapter la couleur).
+Elle ne peut contenir plus de 18 grammes par litre de produits édulcorants (exprimés en sucre inverti).
+Une nouvelle tendance étend la production des eaux-de-vie en utilisant des aliments confectionnés comme bases de macération tels que des rillettes ou des sablés.
 </t>
         </is>
       </c>
@@ -675,10 +698,204 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Définitions commerciales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Geist</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le geist est la boisson spiritueuse produite par macération de fruits ou baies non fermentés ou de légumes, fruits à coque, autres matériels végétaux, tels que les herbes ou les pétales de rose, ou de champignons dans de l'alcool éthylique d'origine agricole, suivie d'une distillation.
+Le geist doit titrer un minimum de 37,5 % vol.
+Il ne peut être ni coloré ni aromatisé et ne peut contenir plus de 10 grammes par litre de produits édulcorants (exprimés en sucre inverti).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’eau-de-vie fut élaborée au Moyen Âge par des alchimistes qui tentaient de créer un élixir de longue vie. On lui a longtemps attribué des vertus médicinales, avec une certaine raison car le degré alcoolique de la plupart des eaux-de-vie en faisait d'excellents antiseptiques utilisables en interne (gargarismes en cas d'inflammation de la sphère ORL). Elle servait encore à soigner les enfants jusqu’à l’aube du XXe siècle, avec certains dégâts sur leur développement physique et mental ainsi que leur santé à long terme du fait des doses données.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les différentes eaux-de-vie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Eaux-de-vie obtenues par fermentation et distillation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saké japonais n'est pas une eau-de-vie, étant obtenu par fermentation du riz sans distillation. Dans les restaurants chinois d'Europe, on propose fréquemment du meiguilujiu (qui, lui, est distillé) sous le nom de "saké", ce qui entretient la confusion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les différentes eaux-de-vie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Eaux-de-vie obtenues par macération et distillation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains fruits, baies et noix dont la concentration en sucre est trop faible pour produire une quantité d'alcool suffisante par fermentation peuvent être mis à macérer, non fermentés ou partiellement fermentés, dans un distillat provenant des mêmes fruits, baies ou noix, ou dans de l'alcool neutre (ou dans un mélange des deux) et distillés ensuite,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les différentes eaux-de-vie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Eaux-de-vie obtenues par macération et distillation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Geists ou esprits</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les eaux-de-vie obtenues par macération et distillation peuvent porter le nom d'esprit (ou geist) lorsque les fruits, baies ou noix sont mis à macérer non fermentés dans de l'alcool neutre avant d'être distillés.
+Un geist peut également être obtenu à partir de n'importe quelle autre matière première naturelle, pour peu qu'elle soit mise à macérer non fermentée dans de l'alcool neutre et distillée ensuite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eau-de-vie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Distillation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillation est l’opération permettant de faire évaporer l’alcool puis de le condenser afin d’augmenter la proportion d’alcool dans le produit final.
 L’alcool (éthanol) s’évapore à environ 78,5 °C, donc à une température inférieure à la température d'ébullition de l’eau (100 °C à la pression atmosphérique normale).
